--- a/Clinik/1. Введение в клиническую терминологию/2. Структура клинического термина/practice.xlsx
+++ b/Clinik/1. Введение в клиническую терминологию/2. Структура клинического термина/practice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="192">
   <si>
     <t>type</t>
   </si>
@@ -654,12 +654,15 @@
   <si>
     <t>sclerosis arteriarum cardiacarum coronariarum</t>
   </si>
+  <si>
+    <t>answer4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,30 +711,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1038,1209 +1039,1209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>184</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>186</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>64</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G37" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="G39" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="G50" s="6" t="s">
+      <c r="G50" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G51" s="6" t="s">
+      <c r="G51" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>152</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>45</v>
       </c>
     </row>
